--- a/doc/goland需要实现的接口列表.xlsx
+++ b/doc/goland需要实现的接口列表.xlsx
@@ -94,10 +94,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>情况款项记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/api/gcas/recordtruncate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -115,6 +111,10 @@
   </si>
   <si>
     <t>/api/gcas/logout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清空款项记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -460,7 +460,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:B16"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -549,26 +549,26 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
         <v>19</v>
-      </c>
-      <c r="B12" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
         <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
         <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
